--- a/sampledata/sampleTransfer.xlsx
+++ b/sampledata/sampleTransfer.xlsx
@@ -19,49 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Source Plate ID</t>
-  </si>
-  <si>
-    <t>Source Well</t>
-  </si>
-  <si>
-    <t>Destination Plate ID</t>
-  </si>
-  <si>
-    <t>Destination Well</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>plate111</t>
-  </si>
-  <si>
-    <t>plate222</t>
-  </si>
-  <si>
-    <t>plate444</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+  <si>
+    <t>Source Plate Barcode</t>
+  </si>
+  <si>
+    <t>Source Well Id</t>
+  </si>
+  <si>
+    <t>Source Col/Row</t>
+  </si>
+  <si>
+    <t>Destination Plate Type</t>
+  </si>
+  <si>
+    <t>Destination Well Id</t>
+  </si>
+  <si>
+    <t>Destination Col/Row</t>
+  </si>
+  <si>
+    <t>Destination Plate Barcode</t>
+  </si>
+  <si>
+    <t>barcode1</t>
+  </si>
+  <si>
+    <t>96 well, plastic</t>
+  </si>
+  <si>
+    <t>ssdest0000001</t>
+  </si>
+  <si>
+    <t>ssdest0000002</t>
+  </si>
+  <si>
+    <t>384 well, plastic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,8 +70,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,12 +95,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,39 +123,50 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,84 +496,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="35" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sampledata/sampleTransfer.xlsx
+++ b/sampledata/sampleTransfer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Source Plate Barcode</t>
   </si>
@@ -42,26 +42,29 @@
     <t>Destination Plate Barcode</t>
   </si>
   <si>
-    <t>barcode1</t>
-  </si>
-  <si>
     <t>96 well, plastic</t>
   </si>
   <si>
-    <t>ssdest0000001</t>
-  </si>
-  <si>
-    <t>ssdest0000002</t>
-  </si>
-  <si>
     <t>384 well, plastic</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>ssdest000000141</t>
+  </si>
+  <si>
+    <t>ssdest000000241</t>
+  </si>
+  <si>
+    <t>asdf missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +84,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -138,8 +148,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -153,20 +179,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,7 +544,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -537,17 +582,17 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -555,121 +600,121 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>

--- a/sampledata/sampleTransfer.xlsx
+++ b/sampledata/sampleTransfer.xlsx
@@ -51,13 +51,13 @@
     <t>asdf</t>
   </si>
   <si>
-    <t>ssdest000000141</t>
-  </si>
-  <si>
-    <t>ssdest000000241</t>
-  </si>
-  <si>
-    <t>asdf missing</t>
+    <t xml:space="preserve">asdf </t>
+  </si>
+  <si>
+    <t>ssdest000000141jul8</t>
+  </si>
+  <si>
+    <t>ssdest000000241jul8</t>
   </si>
 </sst>
 </file>
@@ -134,8 +134,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,7 +187,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -198,6 +202,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -212,6 +218,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +552,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -582,7 +590,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -592,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -610,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -628,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -646,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -663,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -680,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -697,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -714,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>8</v>
